--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense-preparation.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense-preparation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="111">
   <si>
     <t>Property</t>
   </si>
@@ -249,10 +249,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>調剤についてのExtension</t>
-  </si>
-  <si>
-    <t>一包化、粉砕などの処理を行った際に記載する。</t>
+    <t>調剤結果</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -332,9 +329,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>調剤結果</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -865,7 +859,7 @@
         <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -925,10 +919,10 @@
         <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -936,7 +930,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -947,25 +941,25 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1016,13 +1010,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1031,12 +1025,12 @@
         <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1059,13 +1053,13 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1104,19 +1098,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1128,7 +1122,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1136,7 +1130,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1144,10 +1138,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -1159,16 +1153,16 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1218,13 +1212,13 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -1233,12 +1227,12 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1249,7 +1243,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>75</v>
@@ -1261,10 +1255,10 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>22</v>
@@ -1306,40 +1300,40 @@
         <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>75</v>
@@ -1349,7 +1343,7 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>75</v>
@@ -1361,13 +1355,13 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1394,11 +1388,11 @@
         <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>75</v>
@@ -1416,22 +1410,22 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
